--- a/Blind-Leetcode-questions/Blind Leetcode QUestions.xlsx
+++ b/Blind-Leetcode-questions/Blind Leetcode QUestions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Programming\DSA Practice\repo\DSA-prac\Blind-Leetcode-questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB80ABE0-D0CC-43A2-BA6F-513BEFC24210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AAE670-9D31-4CD2-86D2-D31B70E49A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
